--- a/우릴만나다니/우릴만나다니_2021-08-15.xlsx
+++ b/우릴만나다니/우릴만나다니_2021-08-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>우주정복</t>
   </si>
@@ -113,12 +113,6 @@
   </si>
   <si>
     <t>내이름은도윤하</t>
-  </si>
-  <si>
-    <t>코끼리끼리코</t>
-  </si>
-  <si>
-    <t>강모리</t>
   </si>
   <si>
     <t>빡쭌</t>
@@ -488,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -684,16 +678,6 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
